--- a/code/BlueHr/BlueHrWeb/Template/员工信息导入文件模板.xlsx
+++ b/code/BlueHr/BlueHrWeb/Template/员工信息导入文件模板.xlsx
@@ -169,10 +169,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,41 +267,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,220 +629,225 @@
   <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="24" max="24" width="10.625" customWidth="1"/>
-    <col min="31" max="31" width="17" customWidth="1"/>
+    <col min="1" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="6.625" style="5" customWidth="1"/>
+    <col min="5" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="10.25" style="5" customWidth="1"/>
+    <col min="12" max="23" width="9" style="5"/>
+    <col min="24" max="24" width="10.625" style="5" customWidth="1"/>
+    <col min="25" max="30" width="9" style="5"/>
+    <col min="31" max="31" width="17" style="5" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
+    <row r="2" spans="1:40" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
+    <row r="3" spans="1:40" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
